--- a/Data/PrincipalSMMmodule.xlsx
+++ b/Data/PrincipalSMMmodule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\testerp\POM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\EdwinAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,13 +725,13 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -746,7 +746,7 @@
       <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -761,7 +761,7 @@
       <c r="P2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -776,7 +776,7 @@
       <c r="U2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W2" s="3" t="s">
@@ -791,7 +791,7 @@
       <c r="Z2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
@@ -806,22 +806,22 @@
       <c r="AE2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AH2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AL2" s="5" t="s">
@@ -857,7 +857,7 @@
       <c r="AV2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
